--- a/日程 - 2015.9.8.xlsx
+++ b/日程 - 2015.9.8.xlsx
@@ -16,7 +16,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -295,6 +294,122 @@
   </si>
   <si>
     <t>（客车 大理-丽江）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒店</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥1190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥880</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洱海：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都闲人国际青旅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准夫妻间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.booking.com/hotel/cn/cheng-du-xian-ren-qing-nian-lv-she.html?tab=1&amp;origin=hp&amp;error_url=%2Fhotel%2Fcn%2Fcheng-du-xian-ren-qing-nian-lv-she.zh-cn.html%3Faid%3D391337%3Blabel%3D55eee778-b48d-2b84-d9e7-4aefbfbf1dd1_1441793797%3Bsid%3Dc0bb0406aad0e4e0df054cbb9cfc0bf6%3Bdcid%3D4%3B&amp;do_availability_check=on&amp;aid=391337&amp;dcid=4&amp;label=55eee778-b48d-2b84-d9e7-4aefbfbf1dd1_1441793797&amp;sid=c0bb0406aad0e4e0df054cbb9cfc0bf6&amp;checkin_year_month=2015-9&amp;checkin_monthday=29&amp;checkout_year_month=2015-9&amp;checkout_monthday=30#map_closed</t>
+  </si>
+  <si>
+    <t>春熙坊老成都</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥245</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精致大床房无窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hotel.elong.com/chengdu/90180768/?indate=2015-09-10&amp;outdate=2015-09-11&amp;banid=pcmafengwo&amp;fparam=21_55eee778-b48d-2b84-d9e7-4aefbfbf1dd1_1441794227</t>
+  </si>
+  <si>
+    <t>泸沽湖：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里格心晴客栈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥780</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花园大床房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.youyudf.com/hotel/?iId=823535&amp;sLabel=55eee778-b48d-2b84-d9e7-4aefbfbf1dd1_1441794501&amp;sCheckIn=2015-09-10&amp;sCheckOut=2015-09-11&amp;</t>
+  </si>
+  <si>
+    <t>曼达拉国际青年旅社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥298</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖景房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.agoda.com/zh-cn/mandal-international-youth-hostel/hotel/lijiang-cn.html?asq=yxCf1QvOC%252bF1AKLpuLv6E6uNbZ5JqD8SKM8PKAFGVw%252fnbSQuH4fTCI5KSqW4vWooJ71RzmxoWjOlLHSXapkyMPbx5602Z0juLaHJE53tM5n4Nsm%252bNdiNYORzBQdmxc3fJs17JAndPJb7PcE28ZTMFY1o%252fjb6v3wpyaE83OR22Vqay9X6cincFYyGCcFtsz0AtpEnOcUMpnaV97SUTA2yn71PrUa9%252bz6uw7dSP9GYNb6%252fRLZMH6KjGIUDh66PZQCJ9Gv6oN3ZIG%252fk2LnwiDa4bZCM%252bxLZSMRb6lwNREvbop9fMaNWnWz0ameukqK9MARz2UmD3iNO1AZ1IBMkRHvz30Sv2V%252b7UeRsmFPtvfVhiwwJ0wtxCXpQ7%252fsb2KvCPG6J9ry8kNGEXpXziYS6E2YQtSf8xY%252bN7ptmYKYRgNIGcPIpI34Kl%252bq6jeRCT7fC9k1VFszc1xsTqWo0eeTPaCs4VvbqzuSYYd6AjFPYoPLbgjO%252fcl7HmHEPtnL641bvZ%252bkJ&amp;cid=1610250&amp;tag=55eee778-b48d-2b84-d9e7-4aefbfbf1dd1&amp;checkin=2015-09-29&amp;los=1</t>
+  </si>
+  <si>
+    <t>丽江：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丽江丽人雅舍客栈</t>
+  </si>
+  <si>
+    <t>￥238</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精品大床房8208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.youyudf.com/hotel/?iId=761179&amp;sLabel=55eee778-b48d-2b84-d9e7-4aefbfbf1dd1_1441795346&amp;sCheckIn=2015-10-01&amp;sCheckOut=2015-10-02</t>
+  </si>
+  <si>
+    <t>http://www.youyudf.com/hotel/?iId=736858&amp;sLabel=55eee778-b48d-2b84-d9e7-4aefbfbf1dd1_1441795572&amp;sCheckIn=2015-09-30&amp;sCheckOut=2015-10-01</t>
+  </si>
+  <si>
+    <t>丽江童话精品客栈和顺店</t>
+  </si>
+  <si>
+    <t>￥320</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大床房</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +420,7 @@
   <numFmts count="1">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,8 +507,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +563,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -468,7 +596,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,8 +606,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,11 +695,15 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -846,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="19.95" customHeight="1"/>
@@ -1271,142 +1406,150 @@
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1">
       <c r="A27" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A29" s="6" t="s">
+    <row r="30" spans="1:9" ht="19.95" customHeight="1">
+      <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="19.95" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="12">
-        <v>1159</v>
-      </c>
-      <c r="D30" s="12">
-        <f>C30*2</f>
-        <v>2318</v>
-      </c>
-      <c r="E30" s="12">
-        <f>SUM(D30:D34)</f>
-        <v>8816</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="19.95" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C31" s="12">
-        <v>1455</v>
+        <v>1159</v>
       </c>
       <c r="D31" s="12">
         <f>C31*2</f>
-        <v>2910</v>
+        <v>2318</v>
+      </c>
+      <c r="E31" s="12">
+        <f>SUM(D31:D35)</f>
+        <v>8816</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="19.95" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C32" s="12">
-        <v>899</v>
+        <v>1455</v>
       </c>
       <c r="D32" s="12">
         <f>C32*2</f>
-        <v>1798</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.95" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33" s="12">
-        <v>861</v>
+        <v>899</v>
       </c>
       <c r="D33" s="12">
         <f>C33*2</f>
-        <v>1722</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.95" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C34" s="12">
-        <v>34</v>
+        <v>861</v>
       </c>
       <c r="D34" s="12">
         <f>C34*2</f>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="12">
+        <v>34</v>
+      </c>
+      <c r="D35" s="12">
+        <f>C35*2</f>
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.95" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.95" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.95" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.95" customHeight="1" thickBot="1">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B42" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="C42" s="23" t="s">
         <v>44</v>
       </c>
@@ -1414,15 +1557,117 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:4" s="28" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A43" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="B43" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="28" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.95" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
